--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Desktop\CUHK\Applied Deep Learning\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/202a4d3f52753dd9/Desktop/CUHK/Applied Deep Learning/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B3B314-7B2C-42F4-B34C-CBDE909A93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{33B3B314-7B2C-42F4-B34C-CBDE909A93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{070A2518-FCBB-461E-8F89-AE30A954A608}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="656">
   <si>
     <t>ver2</t>
   </si>
@@ -1989,6 +1989,10 @@
   </si>
   <si>
     <t>How does the company plan to adapt to future industry challenges?</t>
+  </si>
+  <si>
+    <t>ver3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2051,10 +2055,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2071,6 +2081,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2358,487 +2372,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="92.125" customWidth="1"/>
+    <col min="2" max="3" width="92.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
       <c r="B49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -3036,487 +3203,640 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="87.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
       <c r="B8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
       <c r="B10" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>170</v>
       </c>
       <c r="B11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
       <c r="B12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>182</v>
       </c>
       <c r="B17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
       <c r="B18" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>188</v>
       </c>
       <c r="B20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>190</v>
       </c>
       <c r="B21" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>200</v>
       </c>
       <c r="B26" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>202</v>
       </c>
       <c r="B27" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>204</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>206</v>
       </c>
       <c r="B29" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>208</v>
       </c>
       <c r="B30" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>210</v>
       </c>
       <c r="B31" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>212</v>
       </c>
       <c r="B32" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>214</v>
       </c>
       <c r="B33" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>218</v>
       </c>
       <c r="B35" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>220</v>
       </c>
       <c r="B36" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>222</v>
       </c>
       <c r="B37" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>225</v>
       </c>
       <c r="B39" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>227</v>
       </c>
       <c r="B40" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>229</v>
       </c>
       <c r="B41" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>231</v>
       </c>
       <c r="B42" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>233</v>
       </c>
       <c r="B43" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>235</v>
       </c>
       <c r="B44" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>237</v>
       </c>
       <c r="B45" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>239</v>
       </c>
       <c r="B46" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>241</v>
       </c>
       <c r="B47" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>245</v>
       </c>
       <c r="B49" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>247</v>
       </c>
       <c r="B50" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>249</v>
       </c>
       <c r="B51" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>261</v>
       </c>
@@ -3714,487 +4034,640 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="90.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="97.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
       <c r="B17" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
       <c r="B20" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>322</v>
       </c>
       <c r="B21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>325</v>
       </c>
       <c r="B23" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
       <c r="B24" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>335</v>
       </c>
       <c r="B32" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
       <c r="B42" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
       <c r="B43" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
       <c r="B45" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
       <c r="B49" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
       <c r="B50" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -4392,487 +4865,640 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="81.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="84.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>359</v>
       </c>
       <c r="B2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>361</v>
       </c>
       <c r="B3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>369</v>
       </c>
       <c r="B7" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
       <c r="B8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>373</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>375</v>
       </c>
       <c r="B10" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>379</v>
       </c>
       <c r="B12" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>381</v>
       </c>
       <c r="B13" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>383</v>
       </c>
       <c r="B14" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>385</v>
       </c>
       <c r="B15" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>387</v>
       </c>
       <c r="B16" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>389</v>
       </c>
       <c r="B17" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>393</v>
       </c>
       <c r="B19" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>395</v>
       </c>
       <c r="B20" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>397</v>
       </c>
       <c r="B21" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>399</v>
       </c>
       <c r="B22" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>401</v>
       </c>
       <c r="B23" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>403</v>
       </c>
       <c r="B24" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>405</v>
       </c>
       <c r="B25" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>407</v>
       </c>
       <c r="B26" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>409</v>
       </c>
       <c r="B27" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>411</v>
       </c>
       <c r="B28" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>413</v>
       </c>
       <c r="B29" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>415</v>
       </c>
       <c r="B30" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>417</v>
       </c>
       <c r="B31" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>419</v>
       </c>
       <c r="B32" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>421</v>
       </c>
       <c r="B33" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>423</v>
       </c>
       <c r="B34" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>425</v>
       </c>
       <c r="B35" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>427</v>
       </c>
       <c r="B36" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>429</v>
       </c>
       <c r="B37" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>431</v>
       </c>
       <c r="B38" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>433</v>
       </c>
       <c r="B39" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>435</v>
       </c>
       <c r="B40" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>437</v>
       </c>
       <c r="B41" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>439</v>
       </c>
       <c r="B42" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>441</v>
       </c>
       <c r="B43" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>443</v>
       </c>
       <c r="B44" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>445</v>
       </c>
       <c r="B45" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>447</v>
       </c>
       <c r="B46" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>449</v>
       </c>
       <c r="B47" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>451</v>
       </c>
       <c r="B48" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>453</v>
       </c>
       <c r="B49" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>455</v>
       </c>
       <c r="B50" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>457</v>
       </c>
       <c r="B51" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>469</v>
       </c>
@@ -5070,669 +5696,825 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="47.875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45">
+      <c r="A3" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
+      <c r="A14" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30">
+      <c r="A15" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30">
+      <c r="A22" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="C22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="C23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="C24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="C27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="C28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="C29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30">
+      <c r="A30" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="C30" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="C31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30">
+      <c r="A34" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="C34" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="C35" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30">
+      <c r="A36" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="C36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="C37" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30">
+      <c r="A38" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="C38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="C39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="C40" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="C41" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="C42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="A43" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="C43" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="C44" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="C45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="C46" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="C47" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="C48" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="C49" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C50" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30">
+      <c r="A51" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="C51" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30">
+      <c r="A52" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" ht="30">
+      <c r="A53" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" ht="30">
+      <c r="A56" s="3" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" ht="30">
+      <c r="A57" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" ht="30">
+      <c r="A58" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" ht="30">
+      <c r="A60" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" ht="30">
+      <c r="A61" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:3" ht="30">
+      <c r="A62" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" ht="30">
+      <c r="A63" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" ht="30">
+      <c r="A64" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:1" ht="30">
+      <c r="A65" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="1:1" ht="30">
+      <c r="A66" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:1" ht="30">
+      <c r="A67" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:1" ht="30">
+      <c r="A68" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="1:1" ht="30">
+      <c r="A69" s="3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:1" ht="30">
+      <c r="A70" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:1" ht="30">
+      <c r="A71" s="3" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="1:1" ht="30">
+      <c r="A73" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="1:1" ht="30">
+      <c r="A74" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" spans="1:1" ht="30">
+      <c r="A75" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="1:1" ht="30">
+      <c r="A76" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="1:1" ht="30">
+      <c r="A77" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="1:1" ht="30">
+      <c r="A78" s="3" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="1:1" ht="30">
+      <c r="A79" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="80" spans="1:1" ht="30">
+      <c r="A80" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:1" ht="30">
+      <c r="A81" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="1:1" ht="30">
+      <c r="A82" s="3" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="84" spans="1:1" ht="30">
+      <c r="A84" s="3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:1" ht="30">
+      <c r="A85" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="86" spans="1:1" ht="30">
+      <c r="A86" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="1:1" ht="30">
+      <c r="A87" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="88" spans="1:1" ht="30">
+      <c r="A88" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="89" spans="1:1" ht="30">
+      <c r="A89" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="90" spans="1:1" ht="30">
+      <c r="A90" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="1:1" ht="30">
+      <c r="A91" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="92" spans="1:1" ht="30">
+      <c r="A92" s="3" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:1" ht="30">
+      <c r="A93" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="94" spans="1:1" ht="30">
+      <c r="A94" s="3" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="96" spans="1:1" ht="30">
+      <c r="A96" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="97" spans="1:1" ht="30">
+      <c r="A97" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="98" spans="1:1" ht="30">
+      <c r="A98" s="3" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="99" spans="1:1" ht="30">
+      <c r="A99" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="1:1" ht="30">
+      <c r="A100" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="1:1" ht="30">
+      <c r="A101" s="3" t="s">
         <v>654</v>
       </c>
     </row>
